--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henning Carstens\code\xlsUnprotect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB8A7A2-6EFD-4C01-AF0D-4C29226CE38E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3916E2D-FCD5-41C3-A4CA-B109BFD4FD92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="JJU7ZJjlIql5rJnlBbqswLiLTbfl3wmEwfLEs8xmkgFasOFaq98RXBHI1QQXPG7ORAgBBK1M14H/TInLK9Xe2Q==" workbookSaltValue="sKuj/Y8LqduWEy+/bPlNLQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="1071" yWindow="-103" windowWidth="31946" windowHeight="18720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -354,7 +355,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
